--- a/WorktimeFund_template.xlsx
+++ b/WorktimeFund_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EEBF76-E78C-4A1C-8D9E-19109C421479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1854D440-0059-431E-A007-64E93FF9849F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="2120" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="380" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,7 +409,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="C2">
         <v>60</v>

--- a/WorktimeFund_template.xlsx
+++ b/WorktimeFund_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1854D440-0059-431E-A007-64E93FF9849F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75346123-180C-4690-8004-91091599B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="380" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1340" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>point_code</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>ЦО-ЦО3937</t>
+  </si>
+  <si>
+    <t>hours_additional</t>
   </si>
 </sst>
 </file>
@@ -77,8 +80,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -381,11 +384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,26 +396,32 @@
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>45078</v>
+      <c r="B2" s="1">
+        <v>45139</v>
       </c>
       <c r="C2">
         <v>60</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/WorktimeFund_template.xlsx
+++ b/WorktimeFund_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75346123-180C-4690-8004-91091599B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C34A950-24CD-49A1-B1AC-9BE74FA7E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1340" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="380" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -388,12 +388,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -415,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="C2">
         <v>60</v>
